--- a/report.xlsx
+++ b/report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="8964"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="report" sheetId="1" r:id="rId1"/>
@@ -2330,1291 +2330,874 @@
     </row>
     <row r="2" spans="1:500" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.97477205284000001</v>
+        <v>0.94487527777000002</v>
       </c>
       <c r="B2">
-        <v>0.85786081491900001</v>
+        <v>1.09778504243</v>
       </c>
       <c r="C2">
-        <v>2.0187405345</v>
+        <v>1.39965302906</v>
       </c>
       <c r="D2">
-        <v>2.0662968370599999</v>
+        <v>0.91900530604599995</v>
       </c>
       <c r="E2">
-        <v>1.7263456190799999</v>
+        <v>1.56657794057</v>
       </c>
       <c r="F2">
-        <v>1.2676439071600001</v>
+        <v>1.667032683</v>
       </c>
       <c r="G2">
         <v>2.6711504503699999</v>
       </c>
       <c r="H2">
-        <v>0.71758748770799996</v>
+        <v>0.94839654852400002</v>
       </c>
       <c r="I2">
-        <v>2.5367228321200002</v>
+        <v>1.5727061142300001</v>
       </c>
       <c r="J2">
-        <v>1.16271494201</v>
+        <v>0.94088674997999999</v>
       </c>
       <c r="K2">
-        <v>1.1976443343300001</v>
+        <v>1.4636874431</v>
       </c>
       <c r="L2">
-        <v>0.89445314636200002</v>
+        <v>0.99452378941200004</v>
       </c>
       <c r="M2">
         <v>1.0717366991199999</v>
       </c>
       <c r="N2">
-        <v>1.2848973020400001</v>
+        <v>1.15227456822</v>
       </c>
       <c r="O2">
-        <v>0.81592097748100001</v>
+        <v>0.98640373753499999</v>
       </c>
       <c r="P2">
-        <v>0.62156658636399997</v>
+        <v>1.04597168702</v>
       </c>
       <c r="Q2">
-        <v>0.44724419013400002</v>
+        <v>0.49102169497100001</v>
       </c>
       <c r="R2">
-        <v>1.22005749423</v>
+        <v>1.2019421403999999</v>
       </c>
       <c r="S2">
-        <v>2.0347184278100001</v>
+        <v>1.37433282238</v>
       </c>
       <c r="T2">
-        <v>0.94905229708200001</v>
+        <v>0.98038332752000001</v>
       </c>
       <c r="U2">
-        <v>1.0657177849399999</v>
+        <v>1.1524797799199999</v>
       </c>
       <c r="V2">
-        <v>0.84880027817799997</v>
+        <v>1.2223341775300001</v>
       </c>
       <c r="W2">
-        <v>1.3463345607399999</v>
+        <v>1.55587047158</v>
       </c>
       <c r="X2">
-        <v>0.93593787341300005</v>
+        <v>0.95433985970000001</v>
       </c>
       <c r="Y2">
-        <v>0.75372881355900001</v>
+        <v>0.82557515212400001</v>
       </c>
       <c r="Z2">
-        <v>1.1769810949099999</v>
+        <v>1.0757273407900001</v>
       </c>
       <c r="AD2">
         <v>1.16635305077</v>
       </c>
       <c r="AE2">
-        <v>1.1400563672599999</v>
+        <v>1.3068013430300001</v>
       </c>
       <c r="AF2">
-        <v>1.46429878768</v>
-      </c>
-      <c r="AG2">
-        <v>1.1282361619200001</v>
+        <v>1.46650658185</v>
       </c>
       <c r="AH2">
         <v>1.0481641103699999</v>
       </c>
       <c r="AJ2">
-        <v>1.0289179104499999</v>
-      </c>
-      <c r="AK2">
-        <v>1.0583091732800001</v>
+        <v>1.2686279956299999</v>
       </c>
       <c r="AL2">
-        <v>2.1961104891800001</v>
-      </c>
-      <c r="AM2">
-        <v>0.79499835472199998</v>
+        <v>1.27526075619</v>
       </c>
       <c r="AO2">
-        <v>0.76325542628700005</v>
+        <v>0.78959312970899997</v>
       </c>
       <c r="AP2">
-        <v>0.97823363879799996</v>
+        <v>1.06336216234</v>
       </c>
       <c r="AQ2">
-        <v>0.83806879427199998</v>
+        <v>0.96134002030499999</v>
       </c>
       <c r="AR2">
-        <v>1.9684717922099999</v>
+        <v>2.3384480246999999</v>
       </c>
       <c r="AS2">
-        <v>0.93773116270300005</v>
+        <v>0.93571263817799999</v>
       </c>
       <c r="AT2">
-        <v>1.3114460141199999</v>
+        <v>1.1176898280400001</v>
       </c>
       <c r="AU2">
-        <v>1.03511757905</v>
+        <v>1.24344240859</v>
       </c>
       <c r="AW2">
-        <v>1.52391148077</v>
+        <v>1.5659149510999999</v>
       </c>
       <c r="AX2">
-        <v>1.1789581790300001</v>
+        <v>1.07048197121</v>
       </c>
       <c r="AY2">
-        <v>1.2273132525199999</v>
+        <v>1.1260761403899999</v>
       </c>
       <c r="AZ2">
-        <v>1.9493298219599999</v>
+        <v>1.69983755549</v>
       </c>
       <c r="BA2">
-        <v>1.64531968152</v>
+        <v>1.2714222292799999</v>
       </c>
       <c r="BB2">
-        <v>1.45948658987</v>
+        <v>1.6445655154200001</v>
       </c>
       <c r="BC2">
-        <v>1.2981626981700001</v>
-      </c>
-      <c r="BD2">
-        <v>1.1127159744099999</v>
+        <v>1.1114684206300001</v>
       </c>
       <c r="BE2">
-        <v>1.97675952184</v>
+        <v>2.61132730414</v>
       </c>
       <c r="BF2">
-        <v>1.51865584105</v>
+        <v>1.4100246350100001</v>
       </c>
       <c r="BG2">
-        <v>1.9226822432299999</v>
+        <v>2.2330014084499998</v>
       </c>
       <c r="BH2">
-        <v>1.4619879410000001</v>
+        <v>1.18794355105</v>
       </c>
       <c r="BI2">
-        <v>1.78443501084</v>
+        <v>1.7458893605500001</v>
       </c>
       <c r="BJ2">
         <v>1.2227927707799999</v>
       </c>
       <c r="BK2">
-        <v>2.1109501132799999</v>
+        <v>1.72521717445</v>
       </c>
       <c r="BL2">
-        <v>1.4039544081299999</v>
-      </c>
-      <c r="BM2">
-        <v>1.2009742619699999</v>
+        <v>1.26894602736</v>
       </c>
       <c r="BN2">
-        <v>0.67211927236199998</v>
-      </c>
-      <c r="BO2">
-        <v>0.815783438375</v>
+        <v>0.84408738107400005</v>
       </c>
       <c r="BP2">
-        <v>2.5310526377599998</v>
+        <v>1.7369412926900001</v>
       </c>
       <c r="BQ2">
-        <v>3.0310427085599998</v>
-      </c>
-      <c r="BR2">
-        <v>1.3080407701000001</v>
+        <v>1.77467712559</v>
       </c>
       <c r="BS2">
-        <v>1.15120392621</v>
+        <v>0.82894861694999999</v>
       </c>
       <c r="BT2">
-        <v>2.8380530044499999</v>
+        <v>1.3382648323399999</v>
       </c>
       <c r="BU2">
-        <v>2.41550196164</v>
+        <v>1.69303456947</v>
       </c>
       <c r="BV2">
-        <v>1.0756278670999999</v>
+        <v>1.2467378280800001</v>
       </c>
       <c r="BW2">
-        <v>1.0632203738099999</v>
+        <v>1.4944071054700001</v>
       </c>
       <c r="BX2">
-        <v>1.6471152547000001</v>
+        <v>1.47018995047</v>
       </c>
       <c r="BY2">
-        <v>0.49448999253999998</v>
+        <v>0.62371530107899997</v>
       </c>
       <c r="BZ2">
-        <v>1.87051104036</v>
+        <v>2.3685906776099999</v>
       </c>
       <c r="CA2">
-        <v>0.749315068493</v>
-      </c>
-      <c r="CB2">
-        <v>1.2678571428600001</v>
+        <v>0.88954624143000005</v>
       </c>
       <c r="CC2">
-        <v>1.07976876726</v>
+        <v>1.1323142697399999</v>
       </c>
       <c r="CD2">
-        <v>3.0806722219</v>
+        <v>1.9286489035900001</v>
       </c>
       <c r="CE2">
-        <v>1.14399224225</v>
+        <v>0.86574692095500005</v>
       </c>
       <c r="CF2">
         <v>1.0020328648200001</v>
       </c>
       <c r="CG2">
-        <v>2.53319518639</v>
+        <v>1.6094252475499999</v>
       </c>
       <c r="CH2">
-        <v>1.71729779338</v>
+        <v>1.23088378428</v>
       </c>
       <c r="CI2">
-        <v>0.86693178033200002</v>
-      </c>
-      <c r="CJ2">
-        <v>0.78937617921600001</v>
-      </c>
-      <c r="CK2">
-        <v>1.14406547335</v>
+        <v>0.90142520799600001</v>
       </c>
       <c r="CM2">
-        <v>1.1657585368600001</v>
+        <v>1.0235849056599999</v>
       </c>
       <c r="CN2">
-        <v>1.3351321947999999</v>
+        <v>1.1829083514900001</v>
       </c>
       <c r="CO2">
-        <v>1.4241082496299999</v>
+        <v>1.30807217609</v>
       </c>
       <c r="CP2">
-        <v>1.55959706341</v>
+        <v>1.30446600114</v>
       </c>
       <c r="CQ2">
-        <v>1.5132993959800001</v>
+        <v>1.2702727681999999</v>
       </c>
       <c r="CR2">
-        <v>1.3311251991799999</v>
+        <v>1.2008253094900001</v>
       </c>
       <c r="CS2">
-        <v>1.7768359875199999</v>
+        <v>1.24204946996</v>
       </c>
       <c r="CT2">
-        <v>1.34714241848</v>
+        <v>1.3014385366500001</v>
       </c>
       <c r="CU2">
-        <v>0.95905695941000002</v>
+        <v>0.99174130379699998</v>
       </c>
       <c r="CV2">
-        <v>0.867055993207</v>
+        <v>0.86178861788600003</v>
       </c>
       <c r="CX2">
-        <v>0.81937035896199995</v>
+        <v>1.0295844786399999</v>
       </c>
       <c r="CY2">
-        <v>1.3178420116</v>
-      </c>
-      <c r="CZ2">
-        <v>1.05789473684</v>
+        <v>1.1302029329000001</v>
       </c>
       <c r="DA2">
-        <v>1.56289414806</v>
-      </c>
-      <c r="DB2">
-        <v>1.33352390733</v>
-      </c>
-      <c r="DC2">
-        <v>0.76648351648400004</v>
+        <v>1.1379169874399999</v>
       </c>
       <c r="DD2">
-        <v>1.3594892953</v>
-      </c>
-      <c r="DE2">
-        <v>0.91890069536200003</v>
-      </c>
-      <c r="DF2">
-        <v>1.9969039128199999</v>
-      </c>
-      <c r="DH2">
-        <v>1.40761715985</v>
+        <v>1.1804922516</v>
       </c>
       <c r="DK2">
-        <v>0.67043187184800002</v>
-      </c>
-      <c r="DL2">
-        <v>1.36921624174</v>
-      </c>
-      <c r="DM2">
-        <v>1.82413857072</v>
+        <v>0.93297537493100002</v>
       </c>
       <c r="DN2">
-        <v>1.19975808679</v>
+        <v>1.07838924053</v>
       </c>
       <c r="DO2">
-        <v>0.61509643409600001</v>
-      </c>
-      <c r="DP2">
-        <v>1.5958854195600001</v>
-      </c>
-      <c r="DQ2">
-        <v>1.02398628948</v>
-      </c>
-      <c r="DR2">
-        <v>1.0064350064400001</v>
+        <v>0.82713944766500003</v>
       </c>
       <c r="DS2">
-        <v>1.7365693200800001</v>
+        <v>1.17563383492</v>
       </c>
       <c r="DT2">
-        <v>1.2085125962500001</v>
-      </c>
-      <c r="DU2">
-        <v>1.1730337078699999</v>
+        <v>1.0099804137699999</v>
       </c>
       <c r="DV2">
-        <v>1.3102329445100001</v>
-      </c>
-      <c r="DW2">
-        <v>1.6890951507800001</v>
+        <v>1.23145510994</v>
       </c>
       <c r="DX2">
-        <v>0.962167625039</v>
-      </c>
-      <c r="DY2">
-        <v>1.1133779191299999</v>
+        <v>0.82832278480999999</v>
       </c>
       <c r="DZ2">
-        <v>0.36514893214799998</v>
+        <v>0.77250634192699996</v>
       </c>
       <c r="EA2">
-        <v>1.9940784462900001</v>
-      </c>
-      <c r="EC2">
-        <v>1.1688648390800001</v>
-      </c>
-      <c r="ED2">
-        <v>0.99318995462299997</v>
+        <v>1.2427579692999999</v>
       </c>
       <c r="EE2">
-        <v>1.3800556631300001</v>
+        <v>1.0853963303600001</v>
       </c>
       <c r="EF2">
-        <v>1.2802405302099999</v>
+        <v>1.08413959917</v>
       </c>
       <c r="EG2">
-        <v>1.3530967637</v>
+        <v>1.40129568167</v>
       </c>
       <c r="EH2">
-        <v>1.1374077843199999</v>
+        <v>0.97182479132900002</v>
       </c>
       <c r="EJ2">
-        <v>1.9831827773899999</v>
-      </c>
-      <c r="EK2">
-        <v>1.0130158730200001</v>
-      </c>
-      <c r="EL2">
-        <v>0.93478133270899999</v>
-      </c>
-      <c r="EM2">
-        <v>1.2954349698500001</v>
+        <v>1.53785756581</v>
       </c>
       <c r="EN2">
-        <v>0.95678300616699996</v>
-      </c>
-      <c r="EO2">
-        <v>1.5033333333300001</v>
+        <v>1.04991768505</v>
       </c>
       <c r="EP2">
-        <v>0.84552157271799999</v>
-      </c>
-      <c r="EQ2">
-        <v>0.91657232090600005</v>
+        <v>0.854249567371</v>
       </c>
       <c r="ER2">
-        <v>1.1889464565600001</v>
+        <v>1.01708299245</v>
       </c>
       <c r="ES2">
-        <v>1.6934334137</v>
-      </c>
-      <c r="ET2">
-        <v>0.87989272715699995</v>
+        <v>1.2437481262000001</v>
       </c>
       <c r="EV2">
-        <v>0.97249329473199997</v>
+        <v>1.0445365121400001</v>
       </c>
       <c r="EW2">
-        <v>2.69825094149</v>
+        <v>1.8194043587399999</v>
       </c>
       <c r="EX2">
-        <v>0.666761217282</v>
-      </c>
-      <c r="EY2">
-        <v>1.46808510638</v>
+        <v>0.97313910973399997</v>
       </c>
       <c r="EZ2">
-        <v>1.0177575537000001</v>
-      </c>
-      <c r="FB2">
-        <v>1.1042253521100001</v>
-      </c>
-      <c r="FC2">
-        <v>1.3038759689899999</v>
+        <v>0.89445316000300001</v>
       </c>
       <c r="FE2">
-        <v>1.67478627273</v>
-      </c>
-      <c r="FF2">
-        <v>1.1684810488099999</v>
-      </c>
-      <c r="FG2">
-        <v>1.4554597701100001</v>
+        <v>1.2980634903499999</v>
       </c>
       <c r="FH2">
-        <v>1.2614742059799999</v>
+        <v>1.2095339114699999</v>
       </c>
       <c r="FI2">
-        <v>1.37743395599</v>
+        <v>1.2150823071900001</v>
       </c>
       <c r="FJ2">
-        <v>0.616920920677</v>
+        <v>0.595093370796</v>
       </c>
       <c r="FK2">
-        <v>1.73101212345</v>
-      </c>
-      <c r="FL2">
-        <v>1.2180673798299999</v>
+        <v>1.21799580273</v>
       </c>
       <c r="FM2">
-        <v>1.41476819537</v>
-      </c>
-      <c r="FN2">
-        <v>1.53198818898</v>
-      </c>
-      <c r="FO2">
-        <v>1.6076505411799999</v>
-      </c>
-      <c r="FQ2">
-        <v>1.0323100132</v>
+        <v>1.12398293328</v>
       </c>
       <c r="FR2">
-        <v>1.95762137791</v>
-      </c>
-      <c r="FS2">
-        <v>0.82836787564799996</v>
+        <v>1.44356723264</v>
       </c>
       <c r="FT2">
-        <v>1.15206832404</v>
+        <v>1.48765353536</v>
       </c>
       <c r="FU2">
-        <v>1.5912422553400001</v>
+        <v>1.3026992791900001</v>
       </c>
       <c r="FV2">
-        <v>0.84418572446499995</v>
+        <v>1.0425895117499999</v>
       </c>
       <c r="FW2">
-        <v>1.1776585319799999</v>
+        <v>1.21764057332</v>
       </c>
       <c r="FX2">
-        <v>1.1107249373400001</v>
+        <v>1.53456786679</v>
       </c>
       <c r="FY2">
-        <v>1.2279912884699999</v>
-      </c>
-      <c r="FZ2">
-        <v>1.0624967436999999</v>
+        <v>1.4253950567</v>
       </c>
       <c r="GA2">
-        <v>1.8576123279500001</v>
+        <v>1.33978124842</v>
       </c>
       <c r="GB2">
-        <v>0.51004605877800002</v>
-      </c>
-      <c r="GC2">
-        <v>1.11140109056</v>
+        <v>1.02332366598</v>
       </c>
       <c r="GD2">
-        <v>1.67011356719</v>
+        <v>1.18791081859</v>
       </c>
       <c r="GE2">
-        <v>1.09883602775</v>
+        <v>1.13740444462</v>
       </c>
       <c r="GF2">
-        <v>1.6868946879</v>
+        <v>1.1844802050400001</v>
       </c>
       <c r="GG2">
-        <v>1.2712180075199999</v>
+        <v>1.4788143839200001</v>
       </c>
       <c r="GH2">
-        <v>0.96506950738300001</v>
+        <v>1.05391148795</v>
       </c>
       <c r="GI2">
-        <v>3.7946859401999999</v>
-      </c>
-      <c r="GJ2">
-        <v>1.4890647592999999</v>
-      </c>
-      <c r="GK2">
-        <v>1.1100490440399999</v>
-      </c>
-      <c r="GL2">
-        <v>1.2916067146300001</v>
+        <v>2.3775582204000001</v>
       </c>
       <c r="GM2">
-        <v>1.53348463508</v>
+        <v>1.2901809239299999</v>
       </c>
       <c r="GN2">
-        <v>1.9672423135799999</v>
+        <v>1.29936744622</v>
       </c>
       <c r="GO2">
-        <v>0.97482869720599996</v>
+        <v>1.33777383044</v>
       </c>
       <c r="GP2">
-        <v>1.2142289400699999</v>
-      </c>
-      <c r="GQ2">
-        <v>1.3393690514500001</v>
+        <v>1.2731060843899999</v>
       </c>
       <c r="GR2">
-        <v>2.34036371464</v>
+        <v>1.694070806</v>
       </c>
       <c r="GS2">
-        <v>1.52864563327</v>
+        <v>1.4816867647800001</v>
       </c>
       <c r="GT2">
-        <v>1.13543096137</v>
-      </c>
-      <c r="GU2">
-        <v>1.4436794749899999</v>
+        <v>0.96891155655000005</v>
       </c>
       <c r="GV2">
-        <v>1.1633796810799999</v>
-      </c>
-      <c r="GW2">
-        <v>0.81695402298899999</v>
+        <v>1.16038898781</v>
       </c>
       <c r="GX2">
-        <v>2.1423120265</v>
+        <v>1.2592771084300001</v>
       </c>
       <c r="GZ2">
-        <v>1.3696565143399999</v>
+        <v>1.1064543168500001</v>
       </c>
       <c r="HA2">
-        <v>1.3385849221199999</v>
+        <v>0.98505986528099998</v>
       </c>
       <c r="HB2">
-        <v>1.12572270492</v>
+        <v>1.0404984423700001</v>
       </c>
       <c r="HC2">
-        <v>0.61920023160600002</v>
-      </c>
-      <c r="HD2">
-        <v>1.2819383259899999</v>
-      </c>
-      <c r="HE2">
-        <v>1.5452740706500001</v>
+        <v>0.99678079781999995</v>
       </c>
       <c r="HF2">
-        <v>0.95824269625900005</v>
-      </c>
-      <c r="HG2">
-        <v>1.41078959193</v>
+        <v>1.08564631245</v>
       </c>
       <c r="HH2">
-        <v>0.90312277560200005</v>
-      </c>
-      <c r="HI2">
-        <v>0.97047086991200004</v>
-      </c>
-      <c r="HK2">
-        <v>1.04413086958</v>
+        <v>1.0053423719200001</v>
       </c>
       <c r="HL2">
-        <v>1.73974236056</v>
+        <v>1.3491533815700001</v>
       </c>
       <c r="HM2">
-        <v>1.9813673355000001</v>
+        <v>1.6304042640400001</v>
       </c>
       <c r="HN2">
-        <v>1.8608420833399999</v>
+        <v>1.6526128626400001</v>
       </c>
       <c r="HO2">
-        <v>1.74652597011</v>
-      </c>
-      <c r="HP2">
-        <v>0.97885338345899997</v>
+        <v>1.2670025941</v>
       </c>
       <c r="HQ2">
-        <v>1.2228245145900001</v>
+        <v>1.0406738868800001</v>
       </c>
       <c r="HR2">
-        <v>1.9226496809</v>
+        <v>1.12715517241</v>
       </c>
       <c r="HS2">
-        <v>1.2304988808099999</v>
-      </c>
-      <c r="HT2">
-        <v>0.79276152702000002</v>
+        <v>1.3971750519999999</v>
       </c>
       <c r="HU2">
-        <v>2.1617504027900001</v>
-      </c>
-      <c r="HV2">
-        <v>1.19478827362</v>
+        <v>1.5930114333400001</v>
       </c>
       <c r="HW2">
-        <v>0.51095012262999995</v>
+        <v>0.968729630994</v>
       </c>
       <c r="HX2">
-        <v>1.3001733203700001</v>
+        <v>1.2177260086599999</v>
       </c>
       <c r="HY2">
-        <v>0.92596768951300001</v>
+        <v>0.98208073678899999</v>
       </c>
       <c r="HZ2">
-        <v>2.33952469845</v>
-      </c>
-      <c r="IA2">
-        <v>1.02654716241</v>
+        <v>2.15900409776</v>
       </c>
       <c r="IB2">
-        <v>0.81690696485699998</v>
+        <v>0.83129595663900002</v>
       </c>
       <c r="IC2">
-        <v>0.95480223910899997</v>
+        <v>1.0410537977100001</v>
       </c>
       <c r="ID2">
-        <v>0.93948322327699996</v>
+        <v>0.83696251483299999</v>
       </c>
       <c r="IE2">
-        <v>0.83542617439599998</v>
-      </c>
-      <c r="IF2">
-        <v>1.25913396482</v>
+        <v>0.99128962736000004</v>
       </c>
       <c r="IG2">
-        <v>1.3967393270299999</v>
+        <v>1.3090879718799999</v>
       </c>
       <c r="IH2">
-        <v>1.1921961599299999</v>
-      </c>
-      <c r="II2">
-        <v>1.8383808506499999</v>
-      </c>
-      <c r="IJ2">
-        <v>1.3784070796500001</v>
+        <v>1.0366300366300001</v>
       </c>
       <c r="IK2">
-        <v>1.3157409852499999</v>
+        <v>1.4455478535899999</v>
       </c>
       <c r="IL2">
-        <v>0.90143600660000001</v>
-      </c>
-      <c r="IM2">
-        <v>1.4877764842800001</v>
+        <v>0.95133400696600001</v>
       </c>
       <c r="IN2">
-        <v>0.62559948399499998</v>
-      </c>
-      <c r="IO2">
-        <v>1.6742028985499999</v>
+        <v>0.93047592646900001</v>
       </c>
       <c r="IP2">
-        <v>1.80385459443</v>
-      </c>
-      <c r="IQ2">
-        <v>1.4040452430100001</v>
+        <v>1.2785883075</v>
       </c>
       <c r="IR2">
-        <v>0.88319186863099997</v>
+        <v>1.38675388389</v>
       </c>
       <c r="IS2">
-        <v>2.55183077</v>
+        <v>1.546146241</v>
       </c>
       <c r="IT2">
-        <v>1.66236833424</v>
+        <v>1.7567443712899999</v>
       </c>
       <c r="IU2">
-        <v>1.75651281746</v>
+        <v>1.1101678152000001</v>
       </c>
       <c r="IV2">
-        <v>2.0420681160599998</v>
+        <v>1.26136062727</v>
       </c>
       <c r="IW2">
-        <v>2.2676381048100001</v>
+        <v>2.0367338904199999</v>
       </c>
       <c r="IX2">
-        <v>0.72148660055500002</v>
+        <v>0.86633050142400003</v>
       </c>
       <c r="IY2">
-        <v>1.57258734625</v>
-      </c>
-      <c r="IZ2">
-        <v>1.1532799518600001</v>
+        <v>1.4570152403200001</v>
       </c>
       <c r="JA2">
-        <v>1.3191178804399999</v>
+        <v>1.26410334437</v>
       </c>
       <c r="JC2">
-        <v>2.9169704889200001</v>
+        <v>2.0744446506999998</v>
       </c>
       <c r="JD2">
-        <v>1.03933393873</v>
-      </c>
-      <c r="JE2">
-        <v>0.79081462712399997</v>
+        <v>1.0584807476</v>
       </c>
       <c r="JH2">
-        <v>2.1870554159400002</v>
+        <v>1.54481566273</v>
       </c>
       <c r="JI2">
-        <v>1.6035342080199999</v>
+        <v>1.2454264098800001</v>
       </c>
       <c r="JJ2">
-        <v>0.87843149613500005</v>
+        <v>1.0700310688100001</v>
       </c>
       <c r="JK2">
-        <v>1.72704332558</v>
+        <v>1.12788024209</v>
       </c>
       <c r="JL2">
-        <v>0.37464748940600001</v>
-      </c>
-      <c r="JM2">
-        <v>1.13897356362</v>
+        <v>0.61234050768399995</v>
       </c>
       <c r="JN2">
-        <v>2.12058719902</v>
+        <v>1.7527262260300001</v>
       </c>
       <c r="JO2">
-        <v>1.9311693244599999</v>
-      </c>
-      <c r="JP2">
-        <v>0.94948560530899995</v>
-      </c>
-      <c r="JQ2">
-        <v>1.1299066603200001</v>
+        <v>1.4396656407399999</v>
       </c>
       <c r="JR2">
-        <v>0.986901817377</v>
+        <v>0.95719879193199997</v>
       </c>
       <c r="JS2">
-        <v>2.0219262515800001</v>
+        <v>1.2253790658599999</v>
       </c>
       <c r="JT2">
-        <v>1.7669094060499999</v>
-      </c>
-      <c r="JU2">
-        <v>1.06065989848</v>
+        <v>1.3505652446300001</v>
       </c>
       <c r="JV2">
-        <v>1.16332837167</v>
+        <v>1.13367324202</v>
       </c>
       <c r="JW2">
-        <v>1.55736117973</v>
-      </c>
-      <c r="JY2">
-        <v>1.23291559095</v>
+        <v>1.1933714285699999</v>
       </c>
       <c r="JZ2">
-        <v>1.31806672243</v>
+        <v>1.49122002465</v>
       </c>
       <c r="KA2">
-        <v>2.2214738300399999</v>
-      </c>
-      <c r="KB2">
-        <v>1.1719973160399999</v>
+        <v>1.63053990481</v>
       </c>
       <c r="KD2">
-        <v>1.2235555738599999</v>
+        <v>1.1036387264500001</v>
       </c>
       <c r="KE2">
-        <v>1.0483442198599999</v>
+        <v>1.05587151571</v>
       </c>
       <c r="KF2">
-        <v>1.2679031307299999</v>
+        <v>1.48665171679</v>
       </c>
       <c r="KG2">
-        <v>0.86206858187799995</v>
+        <v>0.83254819178100004</v>
       </c>
       <c r="KH2">
-        <v>0.88785219259799997</v>
-      </c>
-      <c r="KI2">
-        <v>1.5783783783800001</v>
+        <v>1.00481927711</v>
       </c>
       <c r="KK2">
-        <v>1.3593897995799999</v>
-      </c>
-      <c r="KL2">
-        <v>1.21713870733</v>
+        <v>1.19123784153</v>
       </c>
       <c r="KM2">
-        <v>1.1082796940099999</v>
+        <v>1.0548686244200001</v>
       </c>
       <c r="KN2">
-        <v>1.75904597739</v>
+        <v>1.2876516903099999</v>
       </c>
       <c r="KO2">
-        <v>0.48168249696299997</v>
+        <v>0.65412950740499998</v>
       </c>
       <c r="KP2">
-        <v>1.3804548810399999</v>
+        <v>1.5366830902599999</v>
       </c>
       <c r="KQ2">
-        <v>2.1433236699</v>
+        <v>1.4647927887300001</v>
       </c>
       <c r="KR2">
-        <v>1.1755742501099999</v>
+        <v>1.1536092280900001</v>
       </c>
       <c r="KS2">
-        <v>1.12654678857</v>
-      </c>
-      <c r="KT2">
-        <v>1.1360087479500001</v>
-      </c>
-      <c r="KV2">
-        <v>1.39858725465</v>
+        <v>0.82757051865300002</v>
       </c>
       <c r="KW2">
-        <v>1.79867922876</v>
+        <v>1.32682672895</v>
       </c>
       <c r="KX2">
-        <v>1.4351597250599999</v>
-      </c>
-      <c r="KY2">
-        <v>1.1828297161900001</v>
+        <v>1.1468106882</v>
       </c>
       <c r="KZ2">
-        <v>0.83210647414399996</v>
-      </c>
-      <c r="LA2">
-        <v>0.89388178937600005</v>
+        <v>0.789711438998</v>
       </c>
       <c r="LB2">
-        <v>0.66980729230000002</v>
+        <v>0.85378810947200001</v>
       </c>
       <c r="LC2">
-        <v>0.99558269407599997</v>
-      </c>
-      <c r="LD2">
-        <v>1.2838977955899999</v>
-      </c>
-      <c r="LE2">
-        <v>1.00506401138</v>
+        <v>1.4111319312499999</v>
       </c>
       <c r="LF2">
-        <v>1.6729168300099999</v>
-      </c>
-      <c r="LG2">
-        <v>0.98121165644200004</v>
+        <v>1.12589305119</v>
       </c>
       <c r="LH2">
-        <v>0.55110577929399995</v>
+        <v>0.70367363994099996</v>
       </c>
       <c r="LI2">
-        <v>1.26619611382</v>
+        <v>1.1847452912400001</v>
       </c>
       <c r="LJ2">
-        <v>0.92495820683100005</v>
-      </c>
-      <c r="LK2">
-        <v>1.2764074300899999</v>
+        <v>1.1652353423699999</v>
       </c>
       <c r="LL2">
-        <v>2.0761095241800001</v>
-      </c>
-      <c r="LN2">
-        <v>0.86941642457299995</v>
+        <v>1.9133027202599999</v>
       </c>
       <c r="LO2">
-        <v>1.76268096829</v>
+        <v>1.3539694465300001</v>
       </c>
       <c r="LP2">
-        <v>1.26690780278</v>
-      </c>
-      <c r="LQ2">
-        <v>0.75493920972600004</v>
-      </c>
-      <c r="LR2">
-        <v>1.0880477159099999</v>
+        <v>1.0658169641099999</v>
       </c>
       <c r="LS2">
-        <v>0.35786966046099999</v>
+        <v>0.66056471135600003</v>
       </c>
       <c r="LT2">
-        <v>2.4904642252200002</v>
-      </c>
-      <c r="LU2">
-        <v>1.28002830356</v>
-      </c>
-      <c r="LV2">
-        <v>1.12302006336</v>
-      </c>
-      <c r="LW2">
-        <v>0.94242913950899998</v>
-      </c>
-      <c r="LX2">
-        <v>1.0702461347900001</v>
+        <v>1.1184622931499999</v>
       </c>
       <c r="LY2">
-        <v>1.6652664293699999</v>
+        <v>1.3458930197700001</v>
       </c>
       <c r="MA2">
-        <v>2.7101222831</v>
+        <v>1.46569142823</v>
       </c>
       <c r="MB2">
-        <v>1.5639627359999999</v>
-      </c>
-      <c r="MC2">
-        <v>0.96904634780300003</v>
-      </c>
-      <c r="ME2">
-        <v>0.87231352718099997</v>
+        <v>1.25982803787</v>
       </c>
       <c r="MG2">
-        <v>0.83469369698399998</v>
-      </c>
-      <c r="MH2">
-        <v>1.2324176189</v>
-      </c>
-      <c r="MI2">
-        <v>1.83874329541</v>
+        <v>0.93744663695599995</v>
       </c>
       <c r="MK2">
-        <v>1.5294974190799999</v>
+        <v>1.2538530480900001</v>
       </c>
       <c r="ML2">
-        <v>0.58953237661900004</v>
+        <v>0.84774036460400004</v>
       </c>
       <c r="MM2">
-        <v>0.41601477700200001</v>
-      </c>
-      <c r="MP2">
-        <v>1.0842112947</v>
+        <v>0.694692232686</v>
       </c>
       <c r="MQ2">
-        <v>3.0918902341800001</v>
-      </c>
-      <c r="MR2">
-        <v>1.3765334219300001</v>
+        <v>2.0384065085</v>
       </c>
       <c r="MS2">
-        <v>0.86470738836700001</v>
-      </c>
-      <c r="MU2">
-        <v>0.65120340788099995</v>
+        <v>1.0021456735100001</v>
       </c>
       <c r="MV2">
-        <v>1.0676756351600001</v>
+        <v>0.95948450413200004</v>
       </c>
       <c r="MW2">
-        <v>2.4710592904899999</v>
+        <v>1.3557369745900001</v>
       </c>
       <c r="MX2">
-        <v>1.3872619765700001</v>
+        <v>1.1361948739800001</v>
       </c>
       <c r="MY2">
-        <v>1.5659178115500001</v>
+        <v>1.40958435194</v>
       </c>
       <c r="MZ2">
-        <v>1.7764288405299999</v>
+        <v>1.14887261592</v>
       </c>
       <c r="NA2">
-        <v>2.43028869768</v>
+        <v>1.46933819065</v>
       </c>
       <c r="NB2">
-        <v>1.72606074664</v>
+        <v>1.5815792881599999</v>
       </c>
       <c r="ND2">
-        <v>0.86763927188099998</v>
+        <v>0.97471294026599997</v>
       </c>
       <c r="NE2">
-        <v>1.1733458836199999</v>
+        <v>1.0957259805099999</v>
       </c>
       <c r="NF2">
-        <v>0.919186670732</v>
-      </c>
-      <c r="NG2">
-        <v>1.2337739703099999</v>
+        <v>1.0918228240700001</v>
       </c>
       <c r="NH2">
-        <v>1.72720319784</v>
-      </c>
-      <c r="NI2">
-        <v>2.0818785291799999</v>
-      </c>
-      <c r="NJ2">
-        <v>0.64862359506699996</v>
-      </c>
-      <c r="NK2">
-        <v>1.2640660164999999</v>
+        <v>1.0867921892800001</v>
       </c>
       <c r="NL2">
-        <v>2.0147935454399999</v>
-      </c>
-      <c r="NN2">
-        <v>1.17464019718</v>
+        <v>1.3304291565299999</v>
       </c>
       <c r="NP2">
-        <v>1.8386806678100001</v>
+        <v>1.2423599437599999</v>
       </c>
       <c r="NR2">
-        <v>2.9434307718100001</v>
+        <v>1.4279256654900001</v>
       </c>
       <c r="NS2">
-        <v>1.16723652458</v>
+        <v>1.03657013745</v>
       </c>
       <c r="NU2">
-        <v>1.5519812015900001</v>
-      </c>
-      <c r="NV2">
-        <v>1.86119058107</v>
+        <v>1.2698412698399999</v>
       </c>
       <c r="NW2">
-        <v>1.34158212064</v>
+        <v>1.2048279026199999</v>
       </c>
       <c r="NX2">
-        <v>1.4152374212900001</v>
-      </c>
-      <c r="NY2">
-        <v>0.49996668050100002</v>
+        <v>1.02552958609</v>
       </c>
       <c r="NZ2">
-        <v>1.2988106587899999</v>
+        <v>0.99837925445700004</v>
       </c>
       <c r="OA2">
-        <v>2.3244324557399998</v>
-      </c>
-      <c r="OD2">
-        <v>1.3406779523000001</v>
-      </c>
-      <c r="OF2">
-        <v>1.12268292683</v>
-      </c>
-      <c r="OG2">
-        <v>1.2633451957299999</v>
-      </c>
-      <c r="OH2">
-        <v>1.58946539319</v>
-      </c>
-      <c r="OI2">
-        <v>1.00158478605</v>
+        <v>1.33664144832</v>
       </c>
       <c r="OJ2">
-        <v>1.02896025866</v>
-      </c>
-      <c r="OK2">
-        <v>0.58701538082500004</v>
+        <v>0.99967468267299997</v>
       </c>
       <c r="OL2">
-        <v>1.8357362499600001</v>
+        <v>1.35349955268</v>
       </c>
       <c r="OO2">
-        <v>1.23603883495</v>
-      </c>
-      <c r="OP2">
-        <v>1.15830088695</v>
+        <v>1.17856782206</v>
       </c>
       <c r="OQ2">
-        <v>1.40786226959</v>
+        <v>1.49018238184</v>
       </c>
       <c r="OR2">
-        <v>1.0188114478900001</v>
+        <v>1.1992488965500001</v>
       </c>
       <c r="OS2">
-        <v>0.40613152722200002</v>
+        <v>0.67447693307300005</v>
       </c>
       <c r="OT2">
-        <v>0.78222205515599996</v>
-      </c>
-      <c r="OU2">
-        <v>1.1002731890799999</v>
+        <v>1.0983685246799999</v>
       </c>
       <c r="OV2">
-        <v>1.53653846154</v>
+        <v>1.6059113300500001</v>
       </c>
       <c r="OW2">
-        <v>2.0017799581700002</v>
-      </c>
-      <c r="OX2">
-        <v>1.0621848739499999</v>
+        <v>1.82263636597</v>
       </c>
       <c r="PB2">
-        <v>1.1307690626</v>
+        <v>1.03076049289</v>
       </c>
       <c r="PD2">
-        <v>1.0335218508999999</v>
-      </c>
-      <c r="PE2">
-        <v>1.5256684492000001</v>
-      </c>
-      <c r="PF2">
-        <v>1.39516124874</v>
-      </c>
-      <c r="PG2">
-        <v>1.2641313269500001</v>
+        <v>1.0884813686399999</v>
       </c>
       <c r="PH2">
-        <v>1.7491873395699999</v>
+        <v>1.3678170355499999</v>
       </c>
       <c r="PI2">
-        <v>0.75139996607600001</v>
+        <v>0.83718250188599996</v>
       </c>
       <c r="PJ2">
-        <v>0.83994264424999998</v>
-      </c>
-      <c r="PK2">
-        <v>0.83685064935099995</v>
-      </c>
-      <c r="PL2">
-        <v>1.03285037509</v>
+        <v>1.1135531135500001</v>
       </c>
       <c r="PM2">
-        <v>1.61489332853</v>
+        <v>1.3176647258600001</v>
       </c>
       <c r="PN2">
-        <v>0.91303674161000004</v>
-      </c>
-      <c r="PP2">
-        <v>1.0272257191800001</v>
-      </c>
-      <c r="PS2">
-        <v>1.14125666704</v>
+        <v>1.1145685187000001</v>
       </c>
       <c r="PT2">
-        <v>1.0332138318999999</v>
-      </c>
-      <c r="PU2">
-        <v>0.80892193308600002</v>
+        <v>1.03239470864</v>
       </c>
       <c r="PV2">
-        <v>1.48699155351</v>
-      </c>
-      <c r="PW2">
-        <v>1.21567877758</v>
-      </c>
-      <c r="PX2">
-        <v>2.0128028522800001</v>
+        <v>1.1884735202500001</v>
       </c>
       <c r="PY2">
-        <v>1.6736185377399999</v>
-      </c>
-      <c r="PZ2">
-        <v>0.93649032523700004</v>
-      </c>
-      <c r="QA2">
-        <v>0.98637602179799999</v>
+        <v>1.3517925203100001</v>
       </c>
       <c r="QB2">
-        <v>1.5040601946100001</v>
-      </c>
-      <c r="QC2">
-        <v>1.3490658800399999</v>
-      </c>
-      <c r="QE2">
-        <v>1.3649289099499999</v>
+        <v>1.26550422108</v>
       </c>
       <c r="QF2">
-        <v>0.92762065312499997</v>
-      </c>
-      <c r="QG2">
-        <v>1.16690240453</v>
+        <v>1</v>
       </c>
       <c r="QH2">
-        <v>0.90274750269100001</v>
+        <v>1.28069028341</v>
       </c>
       <c r="QI2">
-        <v>1.37884814441</v>
+        <v>1.0927115330899999</v>
       </c>
       <c r="QJ2">
-        <v>1.47259211076</v>
-      </c>
-      <c r="QK2">
-        <v>1.1609311629400001</v>
+        <v>1.0673580595500001</v>
       </c>
       <c r="QM2">
-        <v>0.42676988485799999</v>
+        <v>0.62287637556099995</v>
       </c>
       <c r="QN2">
-        <v>1.1787248348299999</v>
+        <v>1.21124780316</v>
       </c>
       <c r="QP2">
-        <v>1.28173799446</v>
+        <v>1.28885135135</v>
       </c>
       <c r="QQ2">
-        <v>0.99680000000000002</v>
+        <v>1.08660598179</v>
       </c>
       <c r="QR2">
-        <v>1.1413238154600001</v>
+        <v>0.86542096010799996</v>
       </c>
       <c r="QT2">
-        <v>0.72522658610299995</v>
-      </c>
-      <c r="QV2">
-        <v>1.01256302521</v>
+        <v>1.1188846031699999</v>
       </c>
       <c r="QW2">
-        <v>0.97458470748399995</v>
+        <v>1.1030245517799999</v>
       </c>
       <c r="QY2">
-        <v>1.5329216764</v>
-      </c>
-      <c r="QZ2">
-        <v>0.968655800234</v>
-      </c>
-      <c r="RA2">
-        <v>1.13725490196</v>
+        <v>1.2836496855599999</v>
       </c>
       <c r="RB2">
-        <v>1.50099793517</v>
+        <v>1.2732530120500001</v>
       </c>
       <c r="RC2">
-        <v>1.6641141096200001</v>
+        <v>1.14356202965</v>
       </c>
       <c r="RF2">
-        <v>1.1228328011399999</v>
-      </c>
-      <c r="RI2">
-        <v>1.98499893104</v>
+        <v>0.98840406455499996</v>
       </c>
       <c r="RJ2">
-        <v>1.09981928624</v>
-      </c>
-      <c r="RL2">
-        <v>1.1000000000000001</v>
+        <v>0.96740389339599997</v>
       </c>
       <c r="RM2">
         <v>1.1288515406199999</v>
       </c>
-      <c r="RP2">
-        <v>1.36822724882</v>
-      </c>
       <c r="RR2">
-        <v>1.0672686098399999</v>
-      </c>
-      <c r="RT2">
-        <v>1.1519062974800001</v>
+        <v>1.03949582073</v>
       </c>
       <c r="RU2">
-        <v>1.56275304759</v>
+        <v>1.6798389668</v>
       </c>
       <c r="RW2">
-        <v>2.5981641818200001</v>
+        <v>2.1384839955300001</v>
       </c>
       <c r="RX2">
-        <v>3.3756737131399999</v>
-      </c>
-      <c r="RY2">
-        <v>0.73514174484200001</v>
-      </c>
-      <c r="RZ2">
-        <v>0.80363147276400004</v>
+        <v>1.6376219166899999</v>
       </c>
       <c r="SA2">
-        <v>1.02159559324</v>
-      </c>
-      <c r="SD2">
-        <v>1.0078190925099999</v>
+        <v>1.06693764423</v>
       </c>
     </row>
   </sheetData>
